--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicer\OneDrive\เดสก์ท็อป\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7298BF29-B408-4A47-99F7-F8A2B36EEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F7CE6-2B8F-4201-AF90-D55E83EEFEFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="389">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -865,6 +865,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>แปลงใหม่ รอเลขเครื่อง</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>EZDYH2400054</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1146,6 +1150,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>800G  2XFR4    #03</t>
+  </si>
+  <si>
     <t>EFAZZ0001769</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1311,6 +1318,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DR8 AWS #02</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>EFAZZ2400191</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1370,7 +1381,7 @@
   </si>
   <si>
     <t>800G PSM8    #01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>800G PSM8    #02</t>
@@ -1424,93 +1435,32 @@
     <t>800G PSM8    #09</t>
   </si>
   <si>
-    <t>400G PSM4   #09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G PSM4   #10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EZDYH0000111</t>
-  </si>
-  <si>
-    <t>EFAZZ0001033</t>
-  </si>
-  <si>
-    <t>EFAZZ0001559</t>
-  </si>
-  <si>
-    <t>EFAZZ0000467</t>
-  </si>
-  <si>
-    <t>EFAZZ0000221</t>
-  </si>
-  <si>
-    <t>EFAZZ0000155</t>
-  </si>
-  <si>
-    <t>EFAZZ0000153</t>
-  </si>
-  <si>
-    <t>EFAZZ0000400</t>
-  </si>
-  <si>
-    <t>MM AA</t>
-  </si>
-  <si>
-    <t>200G AOC GEN2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>QDD AOC GEN3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR8 GEN2      #04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR8 GEN2      #06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR8 GEN2      #05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR8 GEN2      #07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR8 GEN2      #08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G PSM4   #01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G PSM4   #08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1524,7 +1474,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1532,26 +1482,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线 Light"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1595,7 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1607,25 +1541,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1903,31 +1834,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="21" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,9 +1869,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1949,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1960,7 +1891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1982,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1993,7 +1924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2004,7 +1935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2015,7 +1946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2037,7 +1968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2048,7 +1979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2059,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2070,7 +2001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2081,7 +2012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2092,7 +2023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -2103,7 +2034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2114,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2125,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2136,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2147,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2158,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2169,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -2180,7 +2111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -2191,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2202,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2213,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2224,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2235,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2246,7 +2177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -2257,7 +2188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2268,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -2279,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -2290,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -2301,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -2312,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -2323,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -2334,7 +2265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -2345,7 +2276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -2356,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -2367,7 +2298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -2378,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -2389,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -2400,7 +2331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -2411,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -2422,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -2433,7 +2364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -2444,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -2455,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
@@ -2466,7 +2397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -2477,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
@@ -2488,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -2499,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -2510,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -2521,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -2532,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -2543,22 +2474,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2569,7 +2506,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
@@ -2580,7 +2517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
@@ -2591,7 +2528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
@@ -2602,7 +2539,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
@@ -2613,7 +2550,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>126</v>
       </c>
@@ -2624,7 +2561,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>128</v>
       </c>
@@ -2635,7 +2572,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
@@ -2646,7 +2583,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>132</v>
       </c>
@@ -2657,7 +2594,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>134</v>
       </c>
@@ -2668,7 +2605,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -2679,7 +2616,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
@@ -2690,7 +2627,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
@@ -2701,7 +2638,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
@@ -2712,7 +2649,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>144</v>
       </c>
@@ -2723,7 +2660,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
@@ -2734,7 +2671,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>148</v>
       </c>
@@ -2745,7 +2682,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
@@ -2756,7 +2693,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>152</v>
       </c>
@@ -2767,7 +2704,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
@@ -2778,7 +2715,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>156</v>
       </c>
@@ -2789,7 +2726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>158</v>
       </c>
@@ -2800,7 +2737,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>160</v>
       </c>
@@ -2811,7 +2748,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>162</v>
       </c>
@@ -2822,7 +2759,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>164</v>
       </c>
@@ -2833,7 +2770,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
@@ -2844,7 +2781,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>168</v>
       </c>
@@ -2855,7 +2792,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>170</v>
       </c>
@@ -2866,7 +2803,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>172</v>
       </c>
@@ -2877,7 +2814,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -2888,7 +2825,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
@@ -2899,7 +2836,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>178</v>
       </c>
@@ -2910,7 +2847,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
@@ -2921,7 +2858,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
@@ -2932,7 +2869,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
@@ -2943,7 +2880,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>186</v>
       </c>
@@ -2954,7 +2891,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>188</v>
       </c>
@@ -2965,7 +2902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>190</v>
       </c>
@@ -2976,7 +2913,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>192</v>
       </c>
@@ -2987,7 +2924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>194</v>
       </c>
@@ -2998,7 +2935,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>196</v>
       </c>
@@ -3009,7 +2946,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>198</v>
       </c>
@@ -3020,7 +2957,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>200</v>
       </c>
@@ -3031,7 +2968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>202</v>
       </c>
@@ -3042,7 +2979,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>204</v>
       </c>
@@ -3053,7 +2990,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>206</v>
       </c>
@@ -3064,7 +3001,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>172</v>
       </c>
@@ -3075,23 +3012,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>208</v>
       </c>
@@ -3102,7 +3033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>210</v>
       </c>
@@ -3113,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>212</v>
       </c>
@@ -3124,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>214</v>
       </c>
@@ -3135,7 +3066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>216</v>
       </c>
@@ -3146,7 +3077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>218</v>
       </c>
@@ -3157,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>220</v>
       </c>
@@ -3168,494 +3099,494 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>386</v>
+      <c r="B117" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>404</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>305</v>
       </c>
@@ -3663,686 +3594,594 @@
         <v>306</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="B165" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B200" s="2" t="s">
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B198" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="1"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="7" t="s">
-        <v>359</v>
+    <row r="211" spans="1:3">
+      <c r="A211" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B213" s="2" t="s">
+      <c r="B216" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B214" s="2" t="s">
+      <c r="B217" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="B218" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="7" t="s">
+    <row r="221" spans="1:3">
+      <c r="A221" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="7" t="s">
+      <c r="C226" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="7" t="s">
+      <c r="C227" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="C228" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="7" t="s">
-        <v>382</v>
+    <row r="229" spans="1:3">
+      <c r="A229" s="9" t="s">
+        <v>386</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicer\OneDrive\เดสก์ท็อป\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F7CE6-2B8F-4201-AF90-D55E83EEFEFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7298BF29-B408-4A47-99F7-F8A2B36EEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="405">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -865,10 +865,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>แปลงใหม่ รอเลขเครื่อง</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EZDYH2400054</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1150,9 +1146,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>800G  2XFR4    #03</t>
-  </si>
-  <si>
     <t>EFAZZ0001769</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1318,10 +1311,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>DR8 AWS #02</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EFAZZ2400191</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1381,7 +1370,7 @@
   </si>
   <si>
     <t>800G PSM8    #01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>800G PSM8    #02</t>
@@ -1435,32 +1424,93 @@
     <t>800G PSM8    #09</t>
   </si>
   <si>
-    <t>test</t>
+    <t>400G PSM4   #09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>400G PSM4   #10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZDYH0000111</t>
+  </si>
+  <si>
+    <t>EFAZZ0001033</t>
+  </si>
+  <si>
+    <t>EFAZZ0001559</t>
+  </si>
+  <si>
+    <t>EFAZZ0000467</t>
+  </si>
+  <si>
+    <t>EFAZZ0000221</t>
+  </si>
+  <si>
+    <t>EFAZZ0000155</t>
+  </si>
+  <si>
+    <t>EFAZZ0000153</t>
+  </si>
+  <si>
+    <t>EFAZZ0000400</t>
+  </si>
+  <si>
+    <t>MM AA</t>
+  </si>
+  <si>
+    <t>200G AOC GEN2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QDD AOC GEN3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR8 GEN2      #04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR8 GEN2      #06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR8 GEN2      #05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR8 GEN2      #07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR8 GEN2      #08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>400G PSM4   #01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>400G PSM4   #08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1474,7 +1524,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Tahoma"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1482,10 +1532,26 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1529,7 +1595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1541,22 +1607,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1834,31 +1903,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1869,9 +1938,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1880,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +2004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1946,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1957,7 +2026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1968,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +2048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,7 +2070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2012,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2023,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -2034,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2045,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2056,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2078,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2089,7 +2158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2100,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -2111,7 +2180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -2122,7 +2191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2133,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2144,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2155,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2166,7 +2235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2177,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -2188,7 +2257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2199,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -2210,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -2221,7 +2290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -2232,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -2243,7 +2312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -2254,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -2265,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -2276,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -2287,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -2298,7 +2367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -2309,7 +2378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -2320,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -2331,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -2342,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -2353,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -2364,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -2375,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
@@ -2386,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
@@ -2397,7 +2466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -2408,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
@@ -2419,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
@@ -2430,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -2441,7 +2510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -2452,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -2463,7 +2532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -2474,28 +2543,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>123456</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2506,7 +2569,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
@@ -2517,7 +2580,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
@@ -2528,7 +2591,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
@@ -2539,7 +2602,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
@@ -2550,7 +2613,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>126</v>
       </c>
@@ -2561,7 +2624,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>128</v>
       </c>
@@ -2572,7 +2635,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
@@ -2583,7 +2646,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>132</v>
       </c>
@@ -2594,7 +2657,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>134</v>
       </c>
@@ -2605,7 +2668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -2616,7 +2679,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
@@ -2627,7 +2690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
@@ -2638,7 +2701,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
@@ -2649,7 +2712,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>144</v>
       </c>
@@ -2660,7 +2723,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
@@ -2671,7 +2734,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>148</v>
       </c>
@@ -2682,7 +2745,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
@@ -2693,7 +2756,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>152</v>
       </c>
@@ -2704,7 +2767,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
@@ -2715,7 +2778,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>156</v>
       </c>
@@ -2726,7 +2789,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>158</v>
       </c>
@@ -2737,7 +2800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>160</v>
       </c>
@@ -2748,7 +2811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>162</v>
       </c>
@@ -2759,7 +2822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>164</v>
       </c>
@@ -2770,7 +2833,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
@@ -2781,7 +2844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>168</v>
       </c>
@@ -2792,7 +2855,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>170</v>
       </c>
@@ -2803,7 +2866,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>172</v>
       </c>
@@ -2814,7 +2877,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -2825,7 +2888,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
@@ -2836,7 +2899,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>178</v>
       </c>
@@ -2847,7 +2910,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
@@ -2858,7 +2921,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
@@ -2869,7 +2932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
@@ -2880,7 +2943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>186</v>
       </c>
@@ -2891,7 +2954,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>188</v>
       </c>
@@ -2902,7 +2965,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>190</v>
       </c>
@@ -2913,7 +2976,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>192</v>
       </c>
@@ -2924,7 +2987,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>194</v>
       </c>
@@ -2935,7 +2998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>196</v>
       </c>
@@ -2946,7 +3009,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>198</v>
       </c>
@@ -2957,7 +3020,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>200</v>
       </c>
@@ -2968,7 +3031,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>202</v>
       </c>
@@ -2979,7 +3042,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>204</v>
       </c>
@@ -2990,7 +3053,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>206</v>
       </c>
@@ -3001,7 +3064,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>172</v>
       </c>
@@ -3012,17 +3075,23 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>208</v>
       </c>
@@ -3033,7 +3102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>210</v>
       </c>
@@ -3044,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>212</v>
       </c>
@@ -3055,7 +3124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>214</v>
       </c>
@@ -3066,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>216</v>
       </c>
@@ -3077,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>218</v>
       </c>
@@ -3088,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>220</v>
       </c>
@@ -3099,494 +3168,494 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="6" t="s">
+      <c r="B119" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C148" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C152" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="C158" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>305</v>
       </c>
@@ -3594,594 +3663,686 @@
         <v>306</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1" t="s">
+      <c r="C170" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1" t="s">
+      <c r="C171" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1" t="s">
+      <c r="C172" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1" t="s">
+      <c r="C173" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1" t="s">
+      <c r="C174" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1" t="s">
+      <c r="C175" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="C176" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B178" s="2" t="s">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1" t="s">
+      <c r="C180" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1" t="s">
+      <c r="C181" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="C182" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1" t="s">
+      <c r="C186" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1" t="s">
+      <c r="C187" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="C188" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="C192" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="C196" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="C200" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="9" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="9" t="s">
+      <c r="C215" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="9" t="s">
+      <c r="C216" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="9" t="s">
+      <c r="C217" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="9" t="s">
+      <c r="C218" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="C219" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="9" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="9" t="s">
+      <c r="C225" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="9" t="s">
+      <c r="C226" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="9" t="s">
+      <c r="C227" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="9" t="s">
+      <c r="C228" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="9" t="s">
+      <c r="C229" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="9" t="s">
+      <c r="B230" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="B229" s="2" t="s">
+      <c r="C230" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>117</v>
+      <c r="B232" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7298BF29-B408-4A47-99F7-F8A2B36EEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CB459-E2EE-4945-8D3A-7C68DA6342D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="18960" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="406">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -697,23 +697,14 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4       #02</t>
-  </si>
-  <si>
     <t>EQPTZ2501092</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4       #05</t>
-  </si>
-  <si>
     <t>EQPTZ2501093</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4       #06</t>
-  </si>
-  <si>
     <t>EFAZZ0001605</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -746,9 +737,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4       #21</t>
-  </si>
-  <si>
     <t>EYHJE2400044</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -767,9 +755,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4       #18</t>
-  </si>
-  <si>
     <t>EQPTZ2501068</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1312,10 +1297,6 @@
   </si>
   <si>
     <t>EFAZZ2400191</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>DR8 AWS #01</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -1492,6 +1473,46 @@
   </si>
   <si>
     <t>400G PSM4   #08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G PSM8    #10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G PSM8    #11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G PSM8    #12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8 AWS #01</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8  AWS   #02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8  AWS   #01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TX AA   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>( PHASE3 )</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1499,7 +1520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1552,6 +1573,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1905,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1940,7 +1968,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2879,10 +2907,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>117</v>
@@ -2890,10 +2918,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>117</v>
@@ -2901,10 +2929,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>117</v>
@@ -2912,10 +2940,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>117</v>
@@ -2923,10 +2951,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>117</v>
@@ -2934,10 +2962,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>117</v>
@@ -2945,10 +2973,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>117</v>
@@ -2956,10 +2984,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>117</v>
@@ -2967,10 +2995,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>117</v>
@@ -2978,10 +3006,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>117</v>
@@ -2989,10 +3017,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>117</v>
@@ -3000,10 +3028,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>117</v>
@@ -3011,81 +3039,81 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>203</v>
+        <v>344</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="A108" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>403</v>
+        <v>211</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2</v>
@@ -3093,10 +3121,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2</v>
@@ -3104,10 +3132,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2</v>
@@ -3115,10 +3143,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>2</v>
@@ -3126,92 +3154,92 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>216</v>
+      <c r="A114" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>217</v>
+        <v>379</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>404</v>
+        <v>224</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>307</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>223</v>
+      <c r="A119" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>385</v>
+        <v>226</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="A120" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>117</v>
@@ -3219,10 +3247,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>117</v>
@@ -3230,10 +3258,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>117</v>
@@ -3241,10 +3269,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>117</v>
@@ -3252,10 +3280,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>117</v>
@@ -3263,32 +3291,26 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>117</v>
@@ -3296,10 +3318,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>117</v>
@@ -3307,10 +3329,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>117</v>
@@ -3318,26 +3340,32 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="A132" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>117</v>
@@ -3345,10 +3373,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>117</v>
@@ -3356,10 +3384,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>117</v>
@@ -3367,10 +3395,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>117</v>
@@ -3378,10 +3406,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>117</v>
@@ -3389,10 +3417,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>117</v>
@@ -3400,10 +3428,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>117</v>
@@ -3411,10 +3439,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>117</v>
@@ -3422,10 +3450,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>117</v>
@@ -3433,10 +3461,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>117</v>
@@ -3444,10 +3472,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>117</v>
@@ -3455,10 +3483,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>117</v>
@@ -3466,10 +3494,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>117</v>
@@ -3477,10 +3505,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>117</v>
@@ -3488,10 +3516,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>117</v>
@@ -3499,32 +3527,26 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>117</v>
@@ -3532,10 +3554,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>117</v>
@@ -3543,10 +3565,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>117</v>
@@ -3554,10 +3576,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>117</v>
@@ -3569,135 +3591,141 @@
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="A159" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="A160" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>307</v>
+        <v>117</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="B166" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="A167" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="A168" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>117</v>
@@ -3705,10 +3733,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>117</v>
@@ -3716,74 +3744,68 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>117</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>117</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="A177" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
@@ -3791,53 +3813,53 @@
       <c r="C178" s="2"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>326</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>326</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>326</v>
+        <v>117</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>326</v>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="A183" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
@@ -3845,48 +3867,36 @@
       <c r="C184" s="2"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
@@ -3894,31 +3904,31 @@
       <c r="C189" s="2"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="A190" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
@@ -3927,7 +3937,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
+      <c r="B194" s="4"/>
       <c r="C194" s="2"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -3935,22 +3945,16 @@
         <v>345</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>326</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>326</v>
-      </c>
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
@@ -3958,24 +3962,36 @@
       <c r="C197" s="2"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+      <c r="A198" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="2"/>
+      <c r="A199" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -3990,13 +4006,13 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -4011,13 +4027,13 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -4031,32 +4047,44 @@
       <c r="C208" s="2"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>356</v>
+      <c r="A209" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
+      <c r="B211" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2</v>
@@ -4064,10 +4092,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -4075,10 +4103,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2</v>
@@ -4086,10 +4114,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2</v>
@@ -4097,64 +4125,64 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="1"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
+      <c r="A220" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
+      <c r="A221" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>117</v>
@@ -4162,10 +4190,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>117</v>
@@ -4173,10 +4201,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>117</v>
@@ -4184,10 +4212,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>117</v>
@@ -4195,10 +4223,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>117</v>
@@ -4206,46 +4234,46 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="7" t="s">
-        <v>381</v>
+      <c r="A228" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="7" t="s">
-        <v>382</v>
+      <c r="A229" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="7" t="s">
-        <v>383</v>
+      <c r="A230" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -4255,90 +4283,90 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CB459-E2EE-4945-8D3A-7C68DA6342D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD19B6-E32D-40F8-B6EB-36C1D745C596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="18960" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,18 +114,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4   #45</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EZDYH0000128</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4   #46</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EZDYH0000122</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -780,21 +772,12 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4       #14</t>
-  </si>
-  <si>
     <t>EQPTZ2501076</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4       #13</t>
-  </si>
-  <si>
     <t>EQPTZ2501075</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #12</t>
   </si>
   <si>
     <t>EZDYH2400116</t>
@@ -1514,6 +1497,26 @@
       <t>( PHASE3 )</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G 2XFR4    #10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G 2XFR4    #11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G 2XFR4    #09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G PSM8    #09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8 AWS #02</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1933,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1946,13 +1949,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1968,7 +1971,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2067,10 +2070,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -2078,10 +2081,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -2089,10 +2092,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -2100,10 +2103,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
@@ -2111,10 +2114,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -2122,10 +2125,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
@@ -2133,10 +2136,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
@@ -2144,10 +2147,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -2155,10 +2158,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
@@ -2166,10 +2169,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
@@ -2177,10 +2180,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -2188,10 +2191,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
@@ -2199,10 +2202,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
@@ -2210,10 +2213,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
@@ -2221,10 +2224,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
@@ -2232,10 +2235,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
@@ -2243,10 +2246,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -2254,10 +2257,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -2265,10 +2268,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
@@ -2276,10 +2279,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -2287,10 +2290,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -2298,10 +2301,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
@@ -2309,10 +2312,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -2320,10 +2323,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -2331,10 +2334,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -2342,10 +2345,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
@@ -2353,10 +2356,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -2364,10 +2367,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
@@ -2375,10 +2378,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2</v>
@@ -2386,10 +2389,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
@@ -2397,10 +2400,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -2408,10 +2411,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -2419,10 +2422,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -2430,10 +2433,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -2441,10 +2444,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
@@ -2452,10 +2455,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
@@ -2463,10 +2466,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -2474,10 +2477,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
@@ -2485,10 +2488,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
@@ -2496,10 +2499,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -2507,10 +2510,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -2518,10 +2521,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2</v>
@@ -2529,10 +2532,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2</v>
@@ -2540,36 +2543,24 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
@@ -2577,488 +2568,500 @@
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>198</v>
+        <v>339</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>397</v>
+        <v>206</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
@@ -3066,10 +3069,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2</v>
@@ -3077,10 +3080,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2</v>
@@ -3088,10 +3091,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
@@ -3099,441 +3102,435 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>2</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>211</v>
+      <c r="A109" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>212</v>
+        <v>374</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>398</v>
+        <v>219</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>302</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="10" t="s">
-        <v>218</v>
+      <c r="A114" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>379</v>
+        <v>221</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A115" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="A127" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -3542,226 +3539,232 @@
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="A154" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="A155" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>302</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="A162" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="A163" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>311</v>
+        <v>195</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>313</v>
+        <v>197</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
@@ -3771,185 +3774,179 @@
         <v>320</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="C175" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="C179" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C188" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>321</v>
-      </c>
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>321</v>
-      </c>
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
-      <c r="B192" s="2"/>
+      <c r="B192" s="4"/>
       <c r="C192" s="2"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="A193" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="2"/>
+      <c r="A194" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
@@ -3957,42 +3954,42 @@
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="1"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
+      <c r="A197" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>346</v>
+        <v>183</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
@@ -4000,20 +3997,20 @@
       <c r="C201" s="2"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
+      <c r="A202" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
@@ -4021,20 +4018,20 @@
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
+      <c r="A205" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="A206" s="1"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
@@ -4042,16 +4039,22 @@
       <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="1"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
+      <c r="A208" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2</v>
@@ -4059,10 +4062,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2</v>
@@ -4070,10 +4073,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
@@ -4081,10 +4084,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2</v>
@@ -4092,10 +4095,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -4103,10 +4106,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2</v>
@@ -4114,21 +4117,21 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="7" t="s">
-        <v>360</v>
+      <c r="A216" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2</v>
@@ -4146,134 +4149,134 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -4283,90 +4286,90 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD19B6-E32D-40F8-B6EB-36C1D745C596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2FFD4-8FBE-45D5-BCB4-F068510A941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="18960" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="407">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -70,14 +70,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EZDYH2400080</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #40</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501078</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -86,14 +78,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EZDYH2400071</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #42</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501100</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -747,13 +731,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EQPTZ2501068</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #17</t>
-  </si>
-  <si>
     <t>EQPTZ2501080</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -763,9 +740,6 @@
   <si>
     <t>EQPTZ2501079</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #15</t>
   </si>
   <si>
     <t>EQPTZ2501077</t>
@@ -1517,6 +1491,37 @@
   <si>
     <t>800G DR8 AWS #02</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G 2XFR4    #12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G 2XFR4  OUT  #05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQPTZ2501068</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G 2XFR4  OUT  #06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZDYH2400080</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G  2XFR4    #07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G  2XFR4    #03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZDYH2400071</t>
   </si>
 </sst>
 </file>
@@ -1934,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1949,13 +1954,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1971,7 +1976,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2048,10 +2053,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -2059,10 +2064,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -2531,26 +2536,14 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
@@ -2558,24 +2551,36 @@
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2586,7 +2591,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2597,7 +2602,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2608,7 +2613,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2619,7 +2624,7 @@
         <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2630,7 +2635,7 @@
         <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2641,7 +2646,7 @@
         <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2652,7 +2657,7 @@
         <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2663,7 +2668,7 @@
         <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2674,7 +2679,7 @@
         <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2685,7 +2690,7 @@
         <v>135</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2696,7 +2701,7 @@
         <v>137</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2707,7 +2712,7 @@
         <v>139</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2718,7 +2723,7 @@
         <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2729,7 +2734,7 @@
         <v>143</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2740,7 +2745,7 @@
         <v>145</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2751,7 +2756,7 @@
         <v>147</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2762,7 +2767,7 @@
         <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2773,7 +2778,7 @@
         <v>151</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2784,7 +2789,7 @@
         <v>153</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2795,7 +2800,7 @@
         <v>155</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2806,7 +2811,7 @@
         <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2817,7 +2822,7 @@
         <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2828,7 +2833,7 @@
         <v>161</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2839,7 +2844,7 @@
         <v>163</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2850,7 +2855,7 @@
         <v>165</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2861,29 +2866,29 @@
         <v>167</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2894,7 +2899,7 @@
         <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2905,108 +2910,108 @@
         <v>178</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>192</v>
+        <v>332</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="A98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>392</v>
+        <v>197</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
@@ -3014,10 +3019,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="4" t="s">
         <v>199</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2</v>
@@ -3025,10 +3030,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2</v>
@@ -3036,10 +3041,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
@@ -3047,10 +3052,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>205</v>
+        <v>368</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
@@ -3058,490 +3063,490 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B105" s="2" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>393</v>
+        <v>210</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="B144" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="A150" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
@@ -3551,241 +3556,247 @@
         <v>287</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>288</v>
+        <v>403</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>289</v>
+        <v>404</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B153" s="2" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="B156" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C159" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C160" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C162" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>313</v>
+        <v>396</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="A170" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="A171" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -3794,53 +3805,53 @@
       <c r="C176" s="2"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="A177" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
@@ -3848,31 +3859,31 @@
       <c r="C182" s="2"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="A183" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>297</v>
-      </c>
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
@@ -3880,31 +3891,31 @@
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="A187" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
@@ -3913,35 +3924,35 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
-      <c r="B191" s="2"/>
+      <c r="B191" s="4"/>
       <c r="C191" s="2"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="2"/>
+      <c r="A192" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
@@ -3949,42 +3960,42 @@
       <c r="C195" s="2"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+      <c r="A196" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>341</v>
+        <v>179</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
@@ -3992,20 +4003,20 @@
       <c r="C200" s="2"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="A201" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
@@ -4013,20 +4024,20 @@
       <c r="C203" s="2"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
+      <c r="A204" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>346</v>
-      </c>
+      <c r="A205" s="1"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
@@ -4034,16 +4045,22 @@
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="1"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
+      <c r="A207" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2</v>
@@ -4051,10 +4068,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2</v>
@@ -4062,10 +4079,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2</v>
@@ -4073,10 +4090,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
@@ -4084,10 +4101,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2</v>
@@ -4095,10 +4112,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -4106,36 +4123,30 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="7" t="s">
-        <v>355</v>
+      <c r="A215" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
@@ -4143,233 +4154,228 @@
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="1"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
+      <c r="A218" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="7" t="s">
-        <v>372</v>
+      <c r="A227" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>115</v>
+        <v>393</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>400</v>
-      </c>
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
+      <c r="A231" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2FFD4-8FBE-45D5-BCB4-F068510A941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048A633-3F2A-4309-BF23-718AE42CE524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="18960" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="406">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4   #44</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EZDYH0000119</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -106,10 +102,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>400G DR4   #47</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EFAZZ0001849</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -733,9 +725,6 @@
   <si>
     <t>EQPTZ2501080</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #16</t>
   </si>
   <si>
     <t>EQPTZ2501079</t>
@@ -1522,6 +1511,14 @@
   </si>
   <si>
     <t>EZDYH2400071</t>
+  </si>
+  <si>
+    <t>400G PSM4   #11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>400G PSM4   #13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1939,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C238"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1954,13 +1951,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1976,7 +1973,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2042,10 +2039,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -2053,10 +2050,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -2064,10 +2061,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -2075,10 +2072,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -2086,10 +2083,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -2097,10 +2094,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -2108,10 +2105,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
@@ -2119,10 +2116,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -2130,10 +2127,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
@@ -2141,10 +2138,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
@@ -2152,10 +2149,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -2163,10 +2160,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
@@ -2174,10 +2171,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
@@ -2185,10 +2182,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -2196,10 +2193,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
@@ -2207,10 +2204,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
@@ -2218,10 +2215,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
@@ -2229,10 +2226,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
@@ -2240,10 +2237,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
@@ -2251,10 +2248,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -2262,10 +2259,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -2273,10 +2270,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
@@ -2284,10 +2281,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -2295,10 +2292,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -2306,10 +2303,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
@@ -2317,10 +2314,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -2328,10 +2325,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -2339,10 +2336,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -2350,10 +2347,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
@@ -2361,10 +2358,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -2372,10 +2369,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
@@ -2383,10 +2380,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2</v>
@@ -2394,10 +2391,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
@@ -2405,10 +2402,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -2416,10 +2413,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -2427,10 +2424,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -2438,10 +2435,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -2449,10 +2446,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
@@ -2460,10 +2457,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
@@ -2471,10 +2468,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -2482,10 +2479,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
@@ -2493,10 +2490,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
@@ -2504,36 +2501,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
@@ -2541,433 +2526,445 @@
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>186</v>
+        <v>329</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>167</v>
+        <v>188</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="A94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>385</v>
+        <v>192</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
@@ -2975,10 +2972,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
@@ -2986,10 +2983,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
@@ -2997,10 +2994,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
@@ -3008,10 +3005,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
@@ -3019,10 +3016,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>200</v>
+        <v>365</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2</v>
@@ -3030,21 +3027,21 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>202</v>
+        <v>383</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="10" t="s">
         <v>203</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>204</v>
+        <v>364</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
@@ -3052,10 +3049,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
@@ -3063,436 +3060,430 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>290</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="A106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
@@ -3500,63 +3491,69 @@
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="A146" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -3564,22 +3561,16 @@
         <v>403</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
@@ -3587,141 +3578,141 @@
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="A155" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C159" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="C160" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="C162" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>396</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
@@ -3729,9 +3720,15 @@
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="A169" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -3741,112 +3738,106 @@
         <v>308</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="C172" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>309</v>
-      </c>
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="A176" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="C178" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
@@ -3854,31 +3845,31 @@
       <c r="C181" s="2"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="1"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="A182" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
@@ -3886,31 +3877,31 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="1"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="A186" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C187" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>309</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
@@ -3919,35 +3910,35 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
-      <c r="B190" s="2"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="1"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="2"/>
+      <c r="A191" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>333</v>
+        <v>16</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
@@ -3955,42 +3946,42 @@
       <c r="C194" s="2"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="A195" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>334</v>
+        <v>177</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
@@ -3998,20 +3989,20 @@
       <c r="C199" s="2"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
+      <c r="A200" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
@@ -4019,20 +4010,20 @@
       <c r="C202" s="2"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
+      <c r="A203" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="A204" s="1"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
@@ -4040,16 +4031,22 @@
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
+      <c r="A206" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>2</v>
@@ -4057,10 +4054,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2</v>
@@ -4068,10 +4065,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2</v>
@@ -4079,10 +4076,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2</v>
@@ -4090,10 +4087,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
@@ -4101,10 +4098,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2</v>
@@ -4112,36 +4109,30 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="7" t="s">
-        <v>348</v>
+      <c r="A214" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
@@ -4149,233 +4140,228 @@
       <c r="C216" s="2"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
+      <c r="A217" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="7" t="s">
-        <v>365</v>
+      <c r="A226" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>393</v>
-      </c>
+      <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
+      <c r="A230" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>378</v>
+        <v>369</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048A633-3F2A-4309-BF23-718AE42CE524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B57689-F800-4255-986D-1949075C221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="18960" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="422">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1520,12 +1520,76 @@
     <t>400G PSM4   #13</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>BR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHASE 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHASE 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOOR 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lieqi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1586,6 +1650,21 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1628,7 +1707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1656,6 +1735,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1936,20 +2024,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -1959,8 +2049,14 @@
       <c r="C1" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,8 +2066,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>337</v>
       </c>
@@ -1981,8 +2083,14 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1992,8 +2100,14 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2003,8 +2117,14 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2014,8 +2134,14 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2025,8 +2151,14 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2036,8 +2168,14 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2047,8 +2185,14 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2058,8 +2202,14 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2069,8 +2219,14 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2080,8 +2236,14 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2091,8 +2253,14 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2102,8 +2270,14 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2113,8 +2287,14 @@
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2304,14 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2135,8 +2321,14 @@
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2146,8 +2338,14 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2157,8 +2355,14 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2372,14 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2179,8 +2389,14 @@
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2190,8 +2406,14 @@
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,8 +2423,14 @@
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2440,14 @@
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2223,8 +2457,14 @@
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -2234,8 +2474,14 @@
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2245,8 +2491,14 @@
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2256,8 +2508,14 @@
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -2267,8 +2525,14 @@
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2278,8 +2542,14 @@
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -2289,8 +2559,14 @@
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -2300,8 +2576,14 @@
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -2311,8 +2593,14 @@
       <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -2322,8 +2610,14 @@
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -2333,8 +2627,14 @@
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -2344,8 +2644,14 @@
       <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2355,8 +2661,14 @@
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2366,8 +2678,14 @@
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -2377,8 +2695,14 @@
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -2388,8 +2712,14 @@
       <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -2399,8 +2729,14 @@
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -2410,8 +2746,14 @@
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2421,8 +2763,14 @@
       <c r="C43" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -2432,8 +2780,14 @@
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -2443,8 +2797,14 @@
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
@@ -2454,8 +2814,14 @@
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -2465,8 +2831,14 @@
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2476,8 +2848,14 @@
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2487,8 +2865,14 @@
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -2498,8 +2882,14 @@
       <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -2509,23 +2899,35 @@
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2535,8 +2937,14 @@
       <c r="C55" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -2546,8 +2954,14 @@
       <c r="C56" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -2557,8 +2971,14 @@
       <c r="C57" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -2568,8 +2988,14 @@
       <c r="C58" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -2579,8 +3005,14 @@
       <c r="C59" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -2590,8 +3022,14 @@
       <c r="C60" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -2601,8 +3039,14 @@
       <c r="C61" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -2612,8 +3056,14 @@
       <c r="C62" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -2623,8 +3073,14 @@
       <c r="C63" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -2634,8 +3090,14 @@
       <c r="C64" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -2645,8 +3107,14 @@
       <c r="C65" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -2656,8 +3124,14 @@
       <c r="C66" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -2667,8 +3141,14 @@
       <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -2678,8 +3158,14 @@
       <c r="C68" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -2689,8 +3175,14 @@
       <c r="C69" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -2700,8 +3192,14 @@
       <c r="C70" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -2711,8 +3209,14 @@
       <c r="C71" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -2722,8 +3226,14 @@
       <c r="C72" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -2733,8 +3243,14 @@
       <c r="C73" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -2744,8 +3260,14 @@
       <c r="C74" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -2755,8 +3277,14 @@
       <c r="C75" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -2766,8 +3294,14 @@
       <c r="C76" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -2777,8 +3311,14 @@
       <c r="C77" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -2788,8 +3328,14 @@
       <c r="C78" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -2799,8 +3345,14 @@
       <c r="C79" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -2810,8 +3362,14 @@
       <c r="C80" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -2821,8 +3379,14 @@
       <c r="C81" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -2832,8 +3396,14 @@
       <c r="C82" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -2843,8 +3413,14 @@
       <c r="C83" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>169</v>
       </c>
@@ -2854,8 +3430,14 @@
       <c r="C84" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
@@ -2865,8 +3447,14 @@
       <c r="C85" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>173</v>
       </c>
@@ -2876,8 +3464,14 @@
       <c r="C86" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
@@ -2887,8 +3481,14 @@
       <c r="C87" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>178</v>
       </c>
@@ -2898,8 +3498,14 @@
       <c r="C88" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>180</v>
       </c>
@@ -2909,1460 +3515,2205 @@
       <c r="C89" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>382</v>
+        <v>189</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
-        <v>203</v>
+        <v>2</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>283</v>
+        <v>400</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>183</v>
+        <v>398</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="1"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
-      <c r="B189" s="2"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="2"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="7" t="s">
-        <v>345</v>
+      <c r="D212" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="7" t="s">
-        <v>362</v>
+      <c r="D224" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>374</v>
-      </c>
+      <c r="D236" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E236" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicer\OneDrive\เดสก์ท็อป\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B57689-F800-4255-986D-1949075C221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52EB0F-761D-48D3-9A14-5970BCE9AF74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="424">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1584,23 +1584,29 @@
     <t>Auto</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1614,7 +1620,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1622,7 +1628,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1630,7 +1636,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1638,7 +1644,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线 Light"/>
+      <name val="Tahoma"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -1653,14 +1659,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Tahoma"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1746,7 +1752,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2024,13 +2030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
@@ -2039,7 +2045,7 @@
     <col min="5" max="5" width="18.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>337</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -2481,7 +2487,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -2906,28 +2912,28 @@
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -3063,7 +3069,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -3148,7 +3154,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -3165,7 +3171,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -3403,7 +3409,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>169</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>173</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>178</v>
       </c>
@@ -3505,7 +3511,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>180</v>
       </c>
@@ -3522,14 +3528,14 @@
         <v>421</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>329</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>188</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>190</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>194</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>196</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>198</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>200</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>202</v>
       </c>
@@ -3682,7 +3688,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>282</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="10" t="s">
         <v>203</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>14</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
@@ -3750,14 +3756,14 @@
         <v>420</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>204</v>
       </c>
@@ -3774,7 +3780,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>206</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>208</v>
       </c>
@@ -3808,7 +3814,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>210</v>
       </c>
@@ -3825,7 +3831,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>212</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>214</v>
       </c>
@@ -3859,7 +3865,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>216</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>218</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>220</v>
       </c>
@@ -3910,7 +3916,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
@@ -3944,14 +3950,14 @@
         <v>421</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>226</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>228</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>232</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>234</v>
       </c>
@@ -4036,7 +4042,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>236</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>238</v>
       </c>
@@ -4070,7 +4076,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>240</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
         <v>242</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
         <v>244</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
         <v>246</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
         <v>248</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
         <v>250</v>
       </c>
@@ -4172,7 +4178,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
         <v>254</v>
       </c>
@@ -4206,7 +4212,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
@@ -4308,14 +4314,14 @@
         <v>421</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
         <v>268</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
         <v>270</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
         <v>272</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
         <v>274</v>
       </c>
@@ -4383,21 +4389,21 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
         <v>276</v>
       </c>
@@ -4414,7 +4420,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
         <v>278</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
         <v>280</v>
       </c>
@@ -4448,7 +4454,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
         <v>285</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
         <v>283</v>
       </c>
@@ -4482,7 +4488,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
         <v>400</v>
       </c>
@@ -4499,7 +4505,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
         <v>403</v>
       </c>
@@ -4516,21 +4522,21 @@
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
         <v>288</v>
       </c>
@@ -4547,7 +4553,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
         <v>290</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
         <v>292</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
         <v>294</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
         <v>296</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
         <v>298</v>
       </c>
@@ -4632,7 +4638,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
         <v>300</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
         <v>302</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
         <v>186</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>185</v>
       </c>
@@ -4700,7 +4706,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
         <v>187</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
         <v>184</v>
       </c>
@@ -4734,21 +4740,21 @@
         <v>420</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>304</v>
       </c>
@@ -4765,7 +4771,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
         <v>307</v>
       </c>
@@ -4782,7 +4788,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
         <v>309</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
         <v>311</v>
       </c>
@@ -4816,7 +4822,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
         <v>183</v>
       </c>
@@ -4833,7 +4839,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
         <v>398</v>
       </c>
@@ -4850,14 +4856,14 @@
         <v>420</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
         <v>313</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
         <v>315</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
         <v>317</v>
       </c>
@@ -4908,7 +4914,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
         <v>319</v>
       </c>
@@ -4925,21 +4931,21 @@
         <v>421</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
         <v>321</v>
       </c>
@@ -4956,7 +4962,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
         <v>323</v>
       </c>
@@ -4973,21 +4979,21 @@
         <v>420</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
         <v>325</v>
       </c>
@@ -5004,7 +5010,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
         <v>327</v>
       </c>
@@ -5021,28 +5027,28 @@
         <v>420</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" s="1"/>
       <c r="B189" s="4"/>
       <c r="C189" s="2"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
         <v>330</v>
       </c>
@@ -5059,7 +5065,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
         <v>16</v>
       </c>
@@ -5076,21 +5082,21 @@
         <v>420</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
         <v>331</v>
       </c>
@@ -5107,7 +5113,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
         <v>177</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
         <v>182</v>
       </c>
@@ -5141,21 +5147,21 @@
         <v>420</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
         <v>333</v>
       </c>
@@ -5172,21 +5178,21 @@
         <v>420</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
         <v>335</v>
       </c>
@@ -5203,21 +5209,21 @@
         <v>420</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" s="7" t="s">
         <v>338</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="7" t="s">
         <v>339</v>
       </c>
@@ -5251,7 +5257,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" s="7" t="s">
         <v>340</v>
       </c>
@@ -5268,7 +5274,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208" s="7" t="s">
         <v>341</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" s="7" t="s">
         <v>342</v>
       </c>
@@ -5302,7 +5308,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" s="7" t="s">
         <v>343</v>
       </c>
@@ -5319,7 +5325,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211" s="7" t="s">
         <v>344</v>
       </c>
@@ -5336,7 +5342,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" s="7" t="s">
         <v>345</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
         <v>15</v>
       </c>
@@ -5370,21 +5376,21 @@
         <v>420</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" s="7" t="s">
         <v>354</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="7" t="s">
         <v>355</v>
       </c>
@@ -5418,7 +5424,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" s="7" t="s">
         <v>356</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="7" t="s">
         <v>357</v>
       </c>
@@ -5452,7 +5458,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="7" t="s">
         <v>358</v>
       </c>
@@ -5469,7 +5475,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="7" t="s">
         <v>359</v>
       </c>
@@ -5486,7 +5492,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" s="7" t="s">
         <v>360</v>
       </c>
@@ -5503,7 +5509,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="7" t="s">
         <v>361</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" s="7" t="s">
         <v>362</v>
       </c>
@@ -5537,7 +5543,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
         <v>166</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
         <v>167</v>
       </c>
@@ -5571,7 +5577,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
         <v>168</v>
       </c>
@@ -5588,14 +5594,14 @@
         <v>420</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" s="8" t="s">
         <v>366</v>
       </c>
@@ -5610,7 +5616,7 @@
       </c>
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" s="8" t="s">
         <v>367</v>
       </c>
@@ -5625,7 +5631,7 @@
       </c>
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" s="8" t="s">
         <v>368</v>
       </c>
@@ -5640,7 +5646,7 @@
       </c>
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" s="8" t="s">
         <v>369</v>
       </c>
@@ -5655,7 +5661,7 @@
       </c>
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" s="8" t="s">
         <v>370</v>
       </c>
@@ -5670,7 +5676,7 @@
       </c>
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="8" t="s">
         <v>371</v>
       </c>
@@ -5685,7 +5691,7 @@
       </c>
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="8" t="s">
         <v>372</v>
       </c>
@@ -5700,7 +5706,7 @@
       </c>
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" s="8" t="s">
         <v>373</v>
       </c>
@@ -5714,6 +5720,23 @@
         <v>419</v>
       </c>
       <c r="E236" s="4"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>123456789</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1111</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>423</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicer\OneDrive\เดสก์ท็อป\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52EB0F-761D-48D3-9A14-5970BCE9AF74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0226133-7D96-4377-931D-096C34B658F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="406">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1520,82 +1520,12 @@
     <t>400G PSM4   #13</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>BR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Program</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR-12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR-04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR-11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR-05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR-03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHASE 3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHASE 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR-09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR-10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR-08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR-16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOOR 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lieqi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>est</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1656,21 +1586,6 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1713,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1741,15 +1656,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2030,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2041,11 +1947,9 @@
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
+    <row r="1" spans="1:3" ht="21" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -2055,14 +1959,8 @@
       <c r="C1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,14 +1970,8 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>337</v>
       </c>
@@ -2089,14 +1981,8 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2106,14 +1992,8 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2123,14 +2003,8 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2140,14 +2014,8 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2157,14 +2025,8 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2174,14 +2036,8 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2191,14 +2047,8 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2208,14 +2058,8 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2225,14 +2069,8 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2242,14 +2080,8 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,14 +2091,8 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2276,14 +2102,8 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2293,14 +2113,8 @@
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2310,14 +2124,8 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2327,14 +2135,8 @@
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2344,14 +2146,8 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2361,14 +2157,8 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2378,14 +2168,8 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2395,14 +2179,8 @@
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2412,14 +2190,8 @@
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2429,14 +2201,8 @@
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -2446,14 +2212,8 @@
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2463,14 +2223,8 @@
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -2480,14 +2234,8 @@
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2497,14 +2245,8 @@
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2514,14 +2256,8 @@
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -2531,14 +2267,8 @@
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2548,14 +2278,8 @@
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -2565,14 +2289,8 @@
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -2582,14 +2300,8 @@
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -2599,14 +2311,8 @@
       <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -2616,14 +2322,8 @@
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -2633,14 +2333,8 @@
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,14 +2344,8 @@
       <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2667,14 +2355,8 @@
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2684,14 +2366,8 @@
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -2701,14 +2377,8 @@
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -2718,14 +2388,8 @@
       <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -2735,14 +2399,8 @@
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -2752,14 +2410,8 @@
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2769,14 +2421,8 @@
       <c r="C43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -2786,14 +2432,8 @@
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -2803,14 +2443,8 @@
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
@@ -2820,14 +2454,8 @@
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -2837,14 +2465,8 @@
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2854,14 +2476,8 @@
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2871,14 +2487,8 @@
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -2888,14 +2498,8 @@
       <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -2905,35 +2509,23 @@
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5">
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2943,14 +2535,8 @@
       <c r="C55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -2960,14 +2546,8 @@
       <c r="C56" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -2977,14 +2557,8 @@
       <c r="C57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -2994,14 +2568,8 @@
       <c r="C58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -3011,14 +2579,8 @@
       <c r="C59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3028,14 +2590,8 @@
       <c r="C60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3045,14 +2601,8 @@
       <c r="C61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -3062,14 +2612,8 @@
       <c r="C62" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -3079,14 +2623,8 @@
       <c r="C63" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -3096,14 +2634,8 @@
       <c r="C64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -3113,14 +2645,8 @@
       <c r="C65" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -3130,14 +2656,8 @@
       <c r="C66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -3147,14 +2667,8 @@
       <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -3164,14 +2678,8 @@
       <c r="C68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -3181,14 +2689,8 @@
       <c r="C69" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -3198,14 +2700,8 @@
       <c r="C70" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -3215,14 +2711,8 @@
       <c r="C71" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -3232,14 +2722,8 @@
       <c r="C72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -3249,14 +2733,8 @@
       <c r="C73" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -3266,14 +2744,8 @@
       <c r="C74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -3283,14 +2755,8 @@
       <c r="C75" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -3300,14 +2766,8 @@
       <c r="C76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -3317,14 +2777,8 @@
       <c r="C77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -3334,14 +2788,8 @@
       <c r="C78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -3351,14 +2799,8 @@
       <c r="C79" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -3368,14 +2810,8 @@
       <c r="C80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -3385,14 +2821,8 @@
       <c r="C81" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -3402,14 +2832,8 @@
       <c r="C82" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -3419,14 +2843,8 @@
       <c r="C83" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>169</v>
       </c>
@@ -3436,14 +2854,8 @@
       <c r="C84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
@@ -3453,14 +2865,8 @@
       <c r="C85" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>173</v>
       </c>
@@ -3470,14 +2876,8 @@
       <c r="C86" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
@@ -3487,14 +2887,8 @@
       <c r="C87" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>178</v>
       </c>
@@ -3504,14 +2898,8 @@
       <c r="C88" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>180</v>
       </c>
@@ -3521,21 +2909,13 @@
       <c r="C89" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5">
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>329</v>
       </c>
@@ -3545,14 +2925,8 @@
       <c r="C91" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>188</v>
       </c>
@@ -3562,14 +2936,8 @@
       <c r="C92" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>190</v>
       </c>
@@ -3579,14 +2947,8 @@
       <c r="C93" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
@@ -3596,14 +2958,8 @@
       <c r="C94" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>194</v>
       </c>
@@ -3613,14 +2969,8 @@
       <c r="C95" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>196</v>
       </c>
@@ -3630,14 +2980,8 @@
       <c r="C96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>198</v>
       </c>
@@ -3647,14 +2991,8 @@
       <c r="C97" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>200</v>
       </c>
@@ -3664,14 +3002,8 @@
       <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>202</v>
       </c>
@@ -3681,14 +3013,8 @@
       <c r="C99" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>282</v>
       </c>
@@ -3698,14 +3024,8 @@
       <c r="C100" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="10" t="s">
         <v>203</v>
       </c>
@@ -3715,14 +3035,8 @@
       <c r="C101" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>14</v>
       </c>
@@ -3732,14 +3046,8 @@
       <c r="C102" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
@@ -3749,21 +3057,13 @@
       <c r="C103" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5">
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>204</v>
       </c>
@@ -3773,14 +3073,8 @@
       <c r="C105" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>206</v>
       </c>
@@ -3790,14 +3084,8 @@
       <c r="C106" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>208</v>
       </c>
@@ -3807,14 +3095,8 @@
       <c r="C107" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>210</v>
       </c>
@@ -3824,14 +3106,8 @@
       <c r="C108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>212</v>
       </c>
@@ -3841,14 +3117,8 @@
       <c r="C109" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>214</v>
       </c>
@@ -3858,14 +3128,8 @@
       <c r="C110" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>216</v>
       </c>
@@ -3875,14 +3139,8 @@
       <c r="C111" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>218</v>
       </c>
@@ -3892,14 +3150,8 @@
       <c r="C112" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>220</v>
       </c>
@@ -3909,14 +3161,8 @@
       <c r="C113" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
@@ -3926,14 +3172,8 @@
       <c r="C114" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
@@ -3943,21 +3183,13 @@
       <c r="C115" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5">
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>226</v>
       </c>
@@ -3967,14 +3199,8 @@
       <c r="C117" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>228</v>
       </c>
@@ -3984,14 +3210,8 @@
       <c r="C118" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
@@ -4001,14 +3221,8 @@
       <c r="C119" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>232</v>
       </c>
@@ -4018,14 +3232,8 @@
       <c r="C120" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>234</v>
       </c>
@@ -4035,14 +3243,8 @@
       <c r="C121" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>236</v>
       </c>
@@ -4052,14 +3254,8 @@
       <c r="C122" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>238</v>
       </c>
@@ -4069,14 +3265,8 @@
       <c r="C123" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>240</v>
       </c>
@@ -4086,14 +3276,8 @@
       <c r="C124" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>242</v>
       </c>
@@ -4103,14 +3287,8 @@
       <c r="C125" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>244</v>
       </c>
@@ -4120,14 +3298,8 @@
       <c r="C126" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>246</v>
       </c>
@@ -4137,14 +3309,8 @@
       <c r="C127" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>248</v>
       </c>
@@ -4154,14 +3320,8 @@
       <c r="C128" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>250</v>
       </c>
@@ -4171,14 +3331,8 @@
       <c r="C129" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
@@ -4188,14 +3342,8 @@
       <c r="C130" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>254</v>
       </c>
@@ -4205,14 +3353,8 @@
       <c r="C131" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
@@ -4222,14 +3364,8 @@
       <c r="C132" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
@@ -4239,14 +3375,8 @@
       <c r="C133" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
@@ -4256,14 +3386,8 @@
       <c r="C134" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
@@ -4273,14 +3397,8 @@
       <c r="C135" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
@@ -4290,14 +3408,8 @@
       <c r="C136" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
@@ -4307,21 +3419,13 @@
       <c r="C137" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="1:5">
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>268</v>
       </c>
@@ -4331,14 +3435,8 @@
       <c r="C139" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>270</v>
       </c>
@@ -4348,14 +3446,8 @@
       <c r="C140" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>272</v>
       </c>
@@ -4365,14 +3457,8 @@
       <c r="C141" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>274</v>
       </c>
@@ -4382,28 +3468,18 @@
       <c r="C142" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="1:5">
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="1:5">
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>276</v>
       </c>
@@ -4413,14 +3489,8 @@
       <c r="C145" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>278</v>
       </c>
@@ -4430,14 +3500,8 @@
       <c r="C146" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>280</v>
       </c>
@@ -4447,14 +3511,8 @@
       <c r="C147" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>285</v>
       </c>
@@ -4464,14 +3522,8 @@
       <c r="C148" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>283</v>
       </c>
@@ -4481,14 +3533,8 @@
       <c r="C149" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>400</v>
       </c>
@@ -4498,14 +3544,8 @@
       <c r="C150" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>403</v>
       </c>
@@ -4515,28 +3555,18 @@
       <c r="C151" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="1:5">
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" spans="1:5">
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>288</v>
       </c>
@@ -4546,14 +3576,8 @@
       <c r="C154" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>290</v>
       </c>
@@ -4563,14 +3587,8 @@
       <c r="C155" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>292</v>
       </c>
@@ -4580,14 +3598,8 @@
       <c r="C156" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>294</v>
       </c>
@@ -4597,14 +3609,8 @@
       <c r="C157" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>296</v>
       </c>
@@ -4614,14 +3620,8 @@
       <c r="C158" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>298</v>
       </c>
@@ -4631,14 +3631,8 @@
       <c r="C159" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>300</v>
       </c>
@@ -4648,14 +3642,8 @@
       <c r="C160" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>302</v>
       </c>
@@ -4665,14 +3653,8 @@
       <c r="C161" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>186</v>
       </c>
@@ -4682,14 +3664,8 @@
       <c r="C162" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>185</v>
       </c>
@@ -4699,14 +3675,8 @@
       <c r="C163" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>187</v>
       </c>
@@ -4716,14 +3686,8 @@
       <c r="C164" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>184</v>
       </c>
@@ -4733,28 +3697,18 @@
       <c r="C165" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="1:5">
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="1:5">
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>304</v>
       </c>
@@ -4764,14 +3718,8 @@
       <c r="C168" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>307</v>
       </c>
@@ -4781,14 +3729,8 @@
       <c r="C169" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>309</v>
       </c>
@@ -4798,14 +3740,8 @@
       <c r="C170" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>311</v>
       </c>
@@ -4815,14 +3751,8 @@
       <c r="C171" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>183</v>
       </c>
@@ -4832,14 +3762,8 @@
       <c r="C172" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>398</v>
       </c>
@@ -4849,21 +3773,13 @@
       <c r="C173" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="1:5">
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>313</v>
       </c>
@@ -4873,14 +3789,8 @@
       <c r="C175" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>315</v>
       </c>
@@ -4890,14 +3800,8 @@
       <c r="C176" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D176" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>317</v>
       </c>
@@ -4907,14 +3811,8 @@
       <c r="C177" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D177" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>319</v>
       </c>
@@ -4924,28 +3822,18 @@
       <c r="C178" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="1:5">
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="1:5">
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>321</v>
       </c>
@@ -4955,14 +3843,8 @@
       <c r="C181" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>323</v>
       </c>
@@ -4972,28 +3854,18 @@
       <c r="C182" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="1:5">
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-    </row>
-    <row r="185" spans="1:5">
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>325</v>
       </c>
@@ -5003,14 +3875,8 @@
       <c r="C185" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>327</v>
       </c>
@@ -5020,35 +3886,23 @@
       <c r="C186" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-    </row>
-    <row r="188" spans="1:5">
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" spans="1:5">
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189" s="4"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" spans="1:5">
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>330</v>
       </c>
@@ -5058,14 +3912,8 @@
       <c r="C190" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>16</v>
       </c>
@@ -5075,28 +3923,18 @@
       <c r="C191" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="1:5">
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="1:5">
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>331</v>
       </c>
@@ -5106,14 +3944,8 @@
       <c r="C194" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>177</v>
       </c>
@@ -5123,14 +3955,8 @@
       <c r="C195" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>182</v>
       </c>
@@ -5140,28 +3966,18 @@
       <c r="C196" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="1:5">
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="1:5">
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>333</v>
       </c>
@@ -5171,28 +3987,18 @@
       <c r="C199" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="1:5">
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="1:5">
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>335</v>
       </c>
@@ -5202,28 +4008,18 @@
       <c r="C202" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-    </row>
-    <row r="204" spans="1:5">
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-    </row>
-    <row r="205" spans="1:5">
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="7" t="s">
         <v>338</v>
       </c>
@@ -5233,14 +4029,8 @@
       <c r="C205" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="7" t="s">
         <v>339</v>
       </c>
@@ -5250,14 +4040,8 @@
       <c r="C206" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="7" t="s">
         <v>340</v>
       </c>
@@ -5267,14 +4051,8 @@
       <c r="C207" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="7" t="s">
         <v>341</v>
       </c>
@@ -5284,14 +4062,8 @@
       <c r="C208" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="7" t="s">
         <v>342</v>
       </c>
@@ -5301,14 +4073,8 @@
       <c r="C209" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D209" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="7" t="s">
         <v>343</v>
       </c>
@@ -5318,14 +4084,8 @@
       <c r="C210" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="7" t="s">
         <v>344</v>
       </c>
@@ -5335,14 +4095,8 @@
       <c r="C211" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="7" t="s">
         <v>345</v>
       </c>
@@ -5352,14 +4106,8 @@
       <c r="C212" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>15</v>
       </c>
@@ -5369,28 +4117,18 @@
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-    </row>
-    <row r="215" spans="1:5">
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="1:5">
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="7" t="s">
         <v>354</v>
       </c>
@@ -5400,14 +4138,8 @@
       <c r="C216" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="7" t="s">
         <v>355</v>
       </c>
@@ -5417,14 +4149,8 @@
       <c r="C217" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="7" t="s">
         <v>356</v>
       </c>
@@ -5434,14 +4160,8 @@
       <c r="C218" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="7" t="s">
         <v>357</v>
       </c>
@@ -5451,14 +4171,8 @@
       <c r="C219" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D219" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="7" t="s">
         <v>358</v>
       </c>
@@ -5468,14 +4182,8 @@
       <c r="C220" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="7" t="s">
         <v>359</v>
       </c>
@@ -5485,14 +4193,8 @@
       <c r="C221" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D221" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="7" t="s">
         <v>360</v>
       </c>
@@ -5502,14 +4204,8 @@
       <c r="C222" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="7" t="s">
         <v>361</v>
       </c>
@@ -5519,14 +4215,8 @@
       <c r="C223" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="7" t="s">
         <v>362</v>
       </c>
@@ -5536,14 +4226,8 @@
       <c r="C224" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>166</v>
       </c>
@@ -5553,14 +4237,8 @@
       <c r="C225" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>167</v>
       </c>
@@ -5570,14 +4248,8 @@
       <c r="C226" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>168</v>
       </c>
@@ -5587,21 +4259,13 @@
       <c r="C227" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D227" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-    </row>
-    <row r="229" spans="1:5">
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="8" t="s">
         <v>366</v>
       </c>
@@ -5611,12 +4275,8 @@
       <c r="C229" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D229" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E229" s="4"/>
-    </row>
-    <row r="230" spans="1:5">
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="8" t="s">
         <v>367</v>
       </c>
@@ -5626,12 +4286,8 @@
       <c r="C230" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E230" s="4"/>
-    </row>
-    <row r="231" spans="1:5">
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="8" t="s">
         <v>368</v>
       </c>
@@ -5641,12 +4297,8 @@
       <c r="C231" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D231" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E231" s="4"/>
-    </row>
-    <row r="232" spans="1:5">
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="8" t="s">
         <v>369</v>
       </c>
@@ -5656,12 +4308,8 @@
       <c r="C232" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D232" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E232" s="4"/>
-    </row>
-    <row r="233" spans="1:5">
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="8" t="s">
         <v>370</v>
       </c>
@@ -5671,12 +4319,8 @@
       <c r="C233" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E233" s="4"/>
-    </row>
-    <row r="234" spans="1:5">
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="8" t="s">
         <v>371</v>
       </c>
@@ -5686,12 +4330,8 @@
       <c r="C234" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D234" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E234" s="4"/>
-    </row>
-    <row r="235" spans="1:5">
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="8" t="s">
         <v>372</v>
       </c>
@@ -5701,12 +4341,8 @@
       <c r="C235" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E235" s="4"/>
-    </row>
-    <row r="236" spans="1:5">
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="8" t="s">
         <v>373</v>
       </c>
@@ -5715,27 +4351,6 @@
       </c>
       <c r="C236" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E236" s="4"/>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239">
-        <v>123456789</v>
-      </c>
-      <c r="B239" s="3">
-        <v>1111</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D239" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="E239" s="11" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicer\OneDrive\เดสก์ท็อป\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0226133-7D96-4377-931D-096C34B658F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B85AD4-C95E-4E28-9E67-F57333706C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="408">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -723,10 +723,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EQPTZ2501080</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501079</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -735,14 +731,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EQPTZ2501076</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQPTZ2501075</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EZDYH2400116</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1181,20 +1169,6 @@
     <t>800G 2XFR4  OUT  #02</t>
   </si>
   <si>
-    <t>EFAZZ0001038</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G FR4   #04</t>
-  </si>
-  <si>
-    <t>EFAZZ0001035</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G FR4   #03</t>
-  </si>
-  <si>
     <t>EFAZZ0000816</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1229,13 +1203,6 @@
   </si>
   <si>
     <t>400G FR4 OUT   #02</t>
-  </si>
-  <si>
-    <t>EZDYH2400214</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G FR4 OUT   #01</t>
   </si>
   <si>
     <t>ELLEN0000011</t>
@@ -1462,18 +1429,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>800G 2XFR4    #10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>800G 2XFR4    #11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>800G 2XFR4    #09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>800G PSM8    #09</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1486,18 +1445,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>800G 2XFR4  OUT  #05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQPTZ2501068</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>800G 2XFR4  OUT  #06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EZDYH2400080</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1518,6 +1465,62 @@
   </si>
   <si>
     <t>400G PSM4   #13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQPTZ2501104</t>
+  </si>
+  <si>
+    <t>400G PSM4   #14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZDYH2400214</t>
+  </si>
+  <si>
+    <t>800G DR8     #01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQPTZ2501075</t>
+  </si>
+  <si>
+    <t>800G DR8     #02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EQPTZ2501076 </t>
+  </si>
+  <si>
+    <t>800G DR8     #03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQPTZ2501080</t>
+  </si>
+  <si>
+    <t>800G DR8     #04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8     #05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQPTZ2501068</t>
+  </si>
+  <si>
+    <t>EFAZZ0001035</t>
+  </si>
+  <si>
+    <t>400G PSM4     #13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFAZZ0001038</t>
+  </si>
+  <si>
+    <t>400G PSM4     #11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1525,18 +1528,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1550,7 +1553,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Tahoma"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1558,7 +1561,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1566,7 +1569,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1574,7 +1577,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="等线 Light"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -1658,7 +1661,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1936,20 +1939,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1">
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1971,9 +1974,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1982,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -2510,22 +2513,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -2723,7 +2726,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>169</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>173</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>178</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>180</v>
       </c>
@@ -2910,1447 +2913,1473 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
+      <c r="B99" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="B101" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B114" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C148" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="B150" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="C164" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="C174" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="C175" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="C179" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="C196" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C202" s="2" t="s">
+      <c r="B208" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="7" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="7" t="s">
+      <c r="B209" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="7" t="s">
+      <c r="C214" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="7" t="s">
+      <c r="C215" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="7" t="s">
+      <c r="C216" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="7" t="s">
+      <c r="C217" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="7" t="s">
+      <c r="C218" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="7" t="s">
+      <c r="C219" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B212" s="2" t="s">
+      <c r="C220" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B213" s="2" t="s">
+      <c r="B221" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>374</v>
+      <c r="B236" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\AppData\Roaming\eq_aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B85AD4-C95E-4E28-9E67-F57333706C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC0B71-804E-4219-A6D3-46F0438E4E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="411">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -62,14 +62,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EQPTZ2400147</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #39</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501078</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -455,37 +447,9 @@
     <t>department</t>
   </si>
   <si>
-    <t>EQPTZ2501088</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #53</t>
-  </si>
-  <si>
     <t>TX AA</t>
   </si>
   <si>
-    <t>EQPTZ2501084</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #52</t>
-  </si>
-  <si>
-    <t>EQPTZ2501086</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #51</t>
-  </si>
-  <si>
-    <t>EQPTZ2501085</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #50</t>
-  </si>
-  <si>
     <t>EFAZZ0001646</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -645,20 +609,6 @@
   </si>
   <si>
     <t>400G DR4       #26</t>
-  </si>
-  <si>
-    <t>EQPTZ2501087</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #25</t>
-  </si>
-  <si>
-    <t>EQPTZ2501073</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #11</t>
   </si>
   <si>
     <t>EQPTZ2501070</t>
@@ -1521,6 +1471,67 @@
   </si>
   <si>
     <t>400G PSM4     #11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZDYH0000057</t>
+  </si>
+  <si>
+    <t>400G CGR4+      #08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQPTZ2400147</t>
+  </si>
+  <si>
+    <t>EQPTZ2501073</t>
+  </si>
+  <si>
+    <t>EQPTZ2501084</t>
+  </si>
+  <si>
+    <t>EQPTZ2501086</t>
+  </si>
+  <si>
+    <t>EQPTZ2501085</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQPTZ2501088</t>
+  </si>
+  <si>
+    <t>EQPTZ2501087</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8     #10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8     #09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8     #07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8     #08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8     #11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G DR8     #06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQPTZ2501105</t>
+  </si>
+  <si>
+    <t>400G PSM4   #15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1939,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C240"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1954,13 +1965,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1976,7 +1987,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2031,10 +2042,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -2503,15 +2514,9 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
@@ -2524,19 +2529,25 @@
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2547,7 +2558,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2558,7 +2569,7 @@
         <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2569,7 +2580,7 @@
         <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2580,7 +2591,7 @@
         <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2591,7 +2602,7 @@
         <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2602,7 +2613,7 @@
         <v>121</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2613,7 +2624,7 @@
         <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2624,7 +2635,7 @@
         <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2635,7 +2646,7 @@
         <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2646,7 +2657,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2657,7 +2668,7 @@
         <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2668,7 +2679,7 @@
         <v>133</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2679,7 +2690,7 @@
         <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2690,7 +2701,7 @@
         <v>137</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2701,7 +2712,7 @@
         <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2712,7 +2723,7 @@
         <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2723,7 +2734,7 @@
         <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2734,7 +2745,7 @@
         <v>145</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2745,7 +2756,7 @@
         <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2756,7 +2767,7 @@
         <v>149</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2767,106 +2778,100 @@
         <v>151</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>170</v>
+        <v>306</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2877,7 +2882,7 @@
         <v>174</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2888,42 +2893,48 @@
         <v>176</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>373</v>
+        <v>183</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
@@ -2933,8 +2944,8 @@
       <c r="A92" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>186</v>
+      <c r="B92" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2</v>
@@ -2942,21 +2953,21 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>188</v>
+        <v>360</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>189</v>
+      <c r="A94" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
@@ -2964,10 +2975,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>192</v>
+        <v>376</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
@@ -2975,10 +2986,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>194</v>
+        <v>377</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
@@ -2986,10 +2997,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>195</v>
+        <v>378</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>196</v>
+        <v>379</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
@@ -2997,725 +3008,719 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>197</v>
+        <v>409</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
-        <v>200</v>
+      <c r="A101" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>391</v>
+        <v>192</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>392</v>
+        <v>193</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>393</v>
+        <v>194</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="A105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>214</v>
+        <v>391</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>216</v>
+        <v>393</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>404</v>
+        <v>213</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>405</v>
+        <v>214</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>406</v>
+        <v>215</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>407</v>
+        <v>216</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="A119" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="A141" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="A146" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="A147" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>386</v>
+        <v>273</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>387</v>
+        <v>274</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>388</v>
+        <v>276</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="A155" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="A156" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>382</v>
+        <v>291</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="1"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="A167" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
@@ -3724,74 +3729,62 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>303</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>303</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="A173" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
@@ -3799,31 +3792,25 @@
       <c r="C176" s="2"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="A177" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
@@ -3832,24 +3819,30 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
-      <c r="B181" s="2"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="2"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>303</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="A183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
@@ -3862,30 +3855,36 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="1"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="2"/>
+      <c r="A186" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>321</v>
+        <v>163</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -3900,41 +3899,35 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+      <c r="A194" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
@@ -3942,53 +3935,71 @@
       <c r="C195" s="2"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="1"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="1"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+      <c r="C198" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>326</v>
+      <c r="A199" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C199" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="1"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="C201" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2</v>
@@ -3996,10 +4007,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
@@ -4007,357 +4018,357 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
-        <v>332</v>
+      <c r="A205" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A206" s="1"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A207" s="1"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>15</v>
+      <c r="A210" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="1"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
+      <c r="A211" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
+      <c r="A212" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
-        <v>349</v>
+      <c r="A217" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>109</v>
+        <v>367</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="7" t="s">
-        <v>350</v>
+      <c r="A218" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>109</v>
+        <v>367</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C221" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="7" t="s">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B221" s="2" t="s">
+      <c r="C223" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>381</v>
+      <c r="C224" s="4" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="1"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
+      <c r="A225" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>366</v>
+        <v>348</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>367</v>
+        <v>349</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>366</v>
+        <v>350</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>365</v>
+      <c r="A231" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>365</v>
+      <c r="A232" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>365</v>
+      <c r="A233" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="1"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
+      <c r="A234" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="1"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
+      <c r="A235" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -4365,22 +4376,99 @@
         <v>400</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B241" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\AppData\Roaming\eq_aa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC0B71-804E-4219-A6D3-46F0438E4E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662FDEE8-0F6B-4F1B-920C-10E261B76262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="404">
   <si>
     <t>EFAZZ0001847</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -62,22 +62,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EQPTZ2501078</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #41</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQPTZ2501100</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #43</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EFAZZ0001862</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -110,14 +94,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EFAZZ0001863</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #50</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EFAZZ0001855</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -134,14 +110,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EFAZZ0000974</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #38</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501097</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -158,14 +126,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EZDYH2400118</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #36</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501094</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -182,14 +142,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EZDYH2400132</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #35</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EZDYH2400102</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1131,13 +1083,6 @@
   </si>
   <si>
     <t>400G FR4   #02</t>
-  </si>
-  <si>
-    <t>EZDYH0000121</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G FR4    #02</t>
   </si>
   <si>
     <t>EZDYH2400053</t>
@@ -1533,6 +1478,27 @@
   <si>
     <t>400G PSM4   #15</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZDYH0000121</t>
+  </si>
+  <si>
+    <t>EQPTZ2501078</t>
+  </si>
+  <si>
+    <t>EFAZZ0001863</t>
+  </si>
+  <si>
+    <t>EQPTZ2501100</t>
+  </si>
+  <si>
+    <t>EZDYH2400132</t>
+  </si>
+  <si>
+    <t>EZDYH2400118</t>
+  </si>
+  <si>
+    <t>EFAZZ0000974</t>
   </si>
 </sst>
 </file>
@@ -1950,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1965,13 +1931,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1987,7 +1953,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2020,10 +1986,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -2031,10 +1997,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -2448,85 +2414,85 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -2536,7 +2502,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2547,7 +2513,7 @@
         <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2558,7 +2524,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2569,7 +2535,7 @@
         <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2580,7 +2546,7 @@
         <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2591,7 +2557,7 @@
         <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2602,7 +2568,7 @@
         <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2613,7 +2579,7 @@
         <v>121</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2624,7 +2590,7 @@
         <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2635,7 +2601,7 @@
         <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2646,7 +2612,7 @@
         <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2657,7 +2623,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2668,7 +2634,7 @@
         <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2679,7 +2645,7 @@
         <v>133</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2690,7 +2656,7 @@
         <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2701,7 +2667,7 @@
         <v>137</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2712,106 +2678,100 @@
         <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>158</v>
+        <v>292</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2822,42 +2782,48 @@
         <v>162</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>359</v>
+        <v>169</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
@@ -2867,7 +2833,7 @@
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2879,7 +2845,7 @@
         <v>173</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
@@ -2887,21 +2853,21 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>176</v>
+        <v>346</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>177</v>
+      <c r="A88" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>178</v>
+        <v>327</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2</v>
@@ -2909,10 +2875,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>180</v>
+        <v>362</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>2</v>
@@ -2920,10 +2886,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>182</v>
+        <v>363</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
@@ -2931,10 +2897,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>184</v>
+        <v>365</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
@@ -2942,90 +2908,90 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>185</v>
+        <v>395</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>377</v>
+        <v>178</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>378</v>
+        <v>179</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>379</v>
+        <v>180</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="A99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="A100" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -3035,7 +3001,7 @@
         <v>188</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3046,7 +3012,7 @@
         <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3057,7 +3023,7 @@
         <v>192</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3068,7 +3034,7 @@
         <v>194</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3079,101 +3045,101 @@
         <v>196</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>197</v>
+        <v>376</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>198</v>
+        <v>377</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>199</v>
+        <v>378</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>200</v>
+        <v>379</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>390</v>
+        <v>203</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>391</v>
+        <v>204</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>392</v>
+        <v>205</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>393</v>
+        <v>206</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="A114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -3183,7 +3149,7 @@
         <v>210</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3194,7 +3160,7 @@
         <v>212</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -3205,7 +3171,7 @@
         <v>214</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -3216,7 +3182,7 @@
         <v>216</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3227,7 +3193,7 @@
         <v>218</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3238,7 +3204,7 @@
         <v>220</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3249,7 +3215,7 @@
         <v>222</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3260,7 +3226,7 @@
         <v>224</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3271,7 +3237,7 @@
         <v>226</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3282,7 +3248,7 @@
         <v>228</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3293,7 +3259,7 @@
         <v>230</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3304,7 +3270,7 @@
         <v>232</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3315,7 +3281,7 @@
         <v>234</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3326,7 +3292,7 @@
         <v>236</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3337,73 +3303,67 @@
         <v>238</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>249</v>
+        <v>380</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>250</v>
+        <v>381</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3413,150 +3373,156 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>394</v>
+        <v>254</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="A142" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -3566,7 +3532,7 @@
         <v>272</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,95 +3543,83 @@
         <v>274</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3674,52 +3628,46 @@
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="A163" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>289</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3728,25 +3676,19 @@
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3760,47 +3702,41 @@
       <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A174" s="1"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="A175" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="A176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
@@ -3808,46 +3744,58 @@
       <c r="C178" s="2"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="A179" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="A180" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="2"/>
+      <c r="A181" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="1"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="A184" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
@@ -3855,37 +3803,25 @@
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>105</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
@@ -3893,533 +3829,563 @@
       <c r="C189" s="2"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="A190" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="1"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="1"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="A193" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>312</v>
+      <c r="A194" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="1"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="A195" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="1"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+      <c r="A196" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
-        <v>316</v>
+      <c r="A198" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="1"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
+      <c r="B206" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="1"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
+      <c r="A207" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="7" t="s">
+      <c r="B217" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
+      <c r="B218" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="7" t="s">
+      <c r="B219" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="7" t="s">
+      <c r="B220" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="1"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>352</v>
+        <v>336</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="A223" s="1"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>351</v>
+      <c r="A224" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>351</v>
+      <c r="A225" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>351</v>
+      <c r="A226" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>351</v>
+      <c r="A227" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>351</v>
+      <c r="A228" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
+      <c r="A229" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="1"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
+      <c r="A230" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="1"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="1"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
+      <c r="B243" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
@@ -4434,41 +4400,6 @@
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="1"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="1"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="1"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="1"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="1"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="1"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662FDEE8-0F6B-4F1B-920C-10E261B76262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1C97B5-8936-4D83-902C-7A67F766D480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EZDYH0000128</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EZDYH0000122</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -142,14 +138,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EZDYH2400102</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #34</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501064</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -166,14 +154,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>EZDYH2400101</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4   #33</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501082</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -542,20 +522,6 @@
     <t>400G DR4       #29</t>
   </si>
   <si>
-    <t>EQPTZ2501090</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #28</t>
-  </si>
-  <si>
-    <t>EQPTZ2501091</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G DR4       #27</t>
-  </si>
-  <si>
     <t>EZDYH2400213</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -940,13 +906,6 @@
   </si>
   <si>
     <t>400G CGR4+      #09</t>
-  </si>
-  <si>
-    <t>EZDYH2400098</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>800G  2XFR4    #06</t>
   </si>
   <si>
     <t>EZDYH2400090</t>
@@ -1308,22 +1267,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">TX AA   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-      </rPr>
-      <t>( PHASE3 )</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>800G 2XFR4    #11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1332,22 +1275,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>800G DR8 AWS #02</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>800G 2XFR4    #12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EZDYH2400080</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>800G  2XFR4    #07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>800G  2XFR4    #03</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1499,24 +1430,69 @@
   </si>
   <si>
     <t>EFAZZ0000974</t>
+  </si>
+  <si>
+    <t>EZDYH2400101</t>
+  </si>
+  <si>
+    <t>EZDYH2400102</t>
+  </si>
+  <si>
+    <t>EZDYH2400098</t>
+  </si>
+  <si>
+    <t>800G DR8     #09</t>
+  </si>
+  <si>
+    <t>800G DR8     #10</t>
+  </si>
+  <si>
+    <t>800G DR8     #11</t>
+  </si>
+  <si>
+    <t>EQPTZ2501091</t>
+  </si>
+  <si>
+    <t>EQPTZ2501090</t>
+  </si>
+  <si>
+    <t>800G DR8     #12</t>
+  </si>
+  <si>
+    <t>800G DR8     #13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX AA </t>
+  </si>
+  <si>
+    <t>EZDYH2400080</t>
+  </si>
+  <si>
+    <t>EZDYH0000128</t>
+  </si>
+  <si>
+    <t>800G PSM8    #10</t>
+  </si>
+  <si>
+    <t>800G PSM8    #11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1530,7 +1506,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1538,7 +1514,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1546,7 +1522,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1554,17 +1530,10 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1918,29 +1887,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="21" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,9 +1920,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1962,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1973,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1984,704 +1953,704 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
@@ -2689,10 +2658,10 @@
         <v>144</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -2700,885 +2669,879 @@
         <v>146</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B148" s="2" t="s">
+      <c r="B149" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+      <c r="C153" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="C154" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>275</v>
       </c>
@@ -3586,803 +3549,797 @@
         <v>276</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
+      <c r="B168" s="4"/>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="1"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+    <row r="183" spans="1:3">
+      <c r="A183" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B189" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="1"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
+      <c r="B190" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C187" s="2" t="s">
+      <c r="C197" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="1"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
+      <c r="C198" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
+      <c r="C200" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
+      <c r="C201" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
+      <c r="C202" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
+      <c r="C203" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B195" s="2" t="s">
+      <c r="C204" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B196" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B198" s="2" t="s">
+      <c r="C205" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="1"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="1"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="1"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="1"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B222" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
+      <c r="B226" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B227" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
+      <c r="B228" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B229" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="B230" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="1"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>392</v>
@@ -4391,15 +4348,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="1"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="1"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1C97B5-8936-4D83-902C-7A67F766D480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBFEB86-5F34-47B4-9EF7-B678E0669CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,14 +648,6 @@
     <t>400G PSM4   #07</t>
   </si>
   <si>
-    <t>EZDYH2400096</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>EZDYH2400054</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501071</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1172,14 +1164,6 @@
     <t>800G PSM8    #09</t>
   </si>
   <si>
-    <t>400G PSM4   #09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G PSM4   #10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EZDYH0000111</t>
   </si>
   <si>
@@ -1475,13 +1459,25 @@
   </si>
   <si>
     <t>800G PSM8    #11</t>
+  </si>
+  <si>
+    <t>EZDYH2400054</t>
+  </si>
+  <si>
+    <t>800G  2XFR4    #07</t>
+  </si>
+  <si>
+    <t>EZDYH2400096</t>
+  </si>
+  <si>
+    <t>800G  2XFR4    #08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,14 +1523,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1577,7 +1565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1604,7 +1592,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1922,7 +1909,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2679,10 +2666,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
@@ -2767,32 +2754,32 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>2</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>247</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="10" t="s">
-        <v>165</v>
+      <c r="A84" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
@@ -2800,10 +2787,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>8</v>
+        <v>345</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -2811,53 +2798,53 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="A89" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="A90" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>88</v>
@@ -2865,10 +2852,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>88</v>
@@ -2876,10 +2863,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>88</v>
@@ -2887,10 +2874,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>88</v>
@@ -2898,10 +2885,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>88</v>
@@ -2909,10 +2896,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>88</v>
@@ -2920,10 +2907,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>88</v>
@@ -2931,10 +2918,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>88</v>
@@ -2942,10 +2929,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>88</v>
@@ -2953,10 +2940,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>184</v>
+        <v>357</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>88</v>
@@ -2964,48 +2951,48 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>363</v>
+        <v>186</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>364</v>
+        <v>187</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="A104" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>88</v>
@@ -3013,10 +3000,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>88</v>
@@ -3024,10 +3011,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>88</v>
@@ -3035,10 +3022,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>88</v>
@@ -3046,10 +3033,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>88</v>
@@ -3057,10 +3044,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>88</v>
@@ -3068,10 +3055,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>88</v>
@@ -3079,10 +3066,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>88</v>
@@ -3090,10 +3077,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>88</v>
@@ -3101,10 +3088,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>88</v>
@@ -3112,10 +3099,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>88</v>
@@ -3123,10 +3110,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>88</v>
@@ -3134,10 +3121,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>88</v>
@@ -3145,10 +3132,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>88</v>
@@ -3156,10 +3143,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>88</v>
@@ -3167,10 +3154,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>88</v>
@@ -3178,10 +3165,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>88</v>
@@ -3189,10 +3176,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>88</v>
@@ -3200,25 +3187,19 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
@@ -3232,16 +3213,22 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="A126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>88</v>
@@ -3249,10 +3236,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>88</v>
@@ -3260,95 +3247,95 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>365</v>
+        <v>236</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>366</v>
+        <v>237</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="A132" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3363,10 +3350,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>88</v>
@@ -3374,10 +3361,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>88</v>
@@ -3385,10 +3372,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>88</v>
@@ -3396,10 +3383,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>88</v>
@@ -3407,10 +3394,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>88</v>
@@ -3418,10 +3405,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>88</v>
@@ -3429,10 +3416,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>88</v>
@@ -3440,10 +3427,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>88</v>
@@ -3454,7 +3441,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>88</v>
@@ -3465,7 +3452,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>88</v>
@@ -3483,46 +3470,46 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3532,10 +3519,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>88</v>
@@ -3543,10 +3530,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>88</v>
@@ -3564,13 +3551,13 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3585,13 +3572,13 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3616,10 +3603,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
@@ -3637,10 +3624,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>88</v>
@@ -3651,7 +3638,7 @@
         <v>142</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>88</v>
@@ -3662,7 +3649,7 @@
         <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>88</v>
@@ -3680,10 +3667,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
@@ -3701,13 +3688,13 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3722,10 +3709,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2</v>
@@ -3733,10 +3720,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -3744,10 +3731,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
@@ -3755,10 +3742,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
@@ -3766,10 +3753,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2</v>
@@ -3777,10 +3764,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
@@ -3788,10 +3775,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -3799,10 +3786,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
@@ -3813,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2</v>
@@ -3821,10 +3808,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>2</v>
@@ -3832,10 +3819,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>2</v>
@@ -3858,10 +3845,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>88</v>
@@ -3869,10 +3856,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>88</v>
@@ -3880,10 +3867,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>88</v>
@@ -3891,10 +3878,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>88</v>
@@ -3902,10 +3889,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>88</v>
@@ -3913,10 +3900,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>88</v>
@@ -3924,10 +3911,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>88</v>
@@ -3935,10 +3922,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>88</v>
@@ -3946,10 +3933,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>88</v>
@@ -3960,7 +3947,7 @@
         <v>131</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>88</v>
@@ -3971,7 +3958,7 @@
         <v>132</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>88</v>
@@ -3982,10 +3969,10 @@
         <v>133</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3995,90 +3982,90 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4093,10 +4080,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>88</v>
@@ -4104,10 +4091,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>88</v>
@@ -4115,10 +4102,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>88</v>
@@ -4126,10 +4113,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>88</v>
@@ -4137,10 +4124,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>88</v>
@@ -4148,10 +4135,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>88</v>
@@ -4159,10 +4146,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>88</v>
@@ -4170,10 +4157,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>88</v>
@@ -4181,10 +4168,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>88</v>
@@ -4192,10 +4179,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>88</v>
@@ -4203,10 +4190,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>88</v>
@@ -4214,10 +4201,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>88</v>
@@ -4225,10 +4212,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>88</v>
@@ -4251,10 +4238,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>2</v>
@@ -4262,10 +4249,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2</v>
@@ -4273,10 +4260,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2</v>
@@ -4284,10 +4271,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -4295,10 +4282,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -4306,10 +4293,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
@@ -4317,10 +4304,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -4328,10 +4315,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -4339,10 +4326,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
@@ -4350,10 +4337,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
@@ -4361,10 +4348,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>2</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachanon.K\AppData\Roaming\eq_aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBFEB86-5F34-47B4-9EF7-B678E0669CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B657B-8D8D-45EB-8339-CF68476AEB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,10 +587,6 @@
     <t>400G DR4       #19</t>
   </si>
   <si>
-    <t>EQPTZ2501067</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EQPTZ2501079</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -648,13 +644,6 @@
     <t>400G PSM4   #07</t>
   </si>
   <si>
-    <t>EQPTZ2501071</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G PSM4     #10</t>
-  </si>
-  <si>
     <t>EFAZZ0001615</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1071,14 +1060,6 @@
   </si>
   <si>
     <t>200G BSM8   #01</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQPTZ2500009</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX AA</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -1161,9 +1142,6 @@
     <t>EZDYH2400192</t>
   </si>
   <si>
-    <t>800G PSM8    #09</t>
-  </si>
-  <si>
     <t>EZDYH0000111</t>
   </si>
   <si>
@@ -1243,10 +1221,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>800G DR8  AWS   #02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>800G DR8  AWS   #01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1471,6 +1445,27 @@
   </si>
   <si>
     <t>800G  2XFR4    #08</t>
+  </si>
+  <si>
+    <t>EQPTZ2501071</t>
+  </si>
+  <si>
+    <t>800G 2XFR4  OUT  #06</t>
+  </si>
+  <si>
+    <t>800G 2XFR4  OUT  #07</t>
+  </si>
+  <si>
+    <t>EQPTZ2501067</t>
+  </si>
+  <si>
+    <t>EQPTZ2500009</t>
+  </si>
+  <si>
+    <t>800G 2XFR4    #13</t>
+  </si>
+  <si>
+    <t>800G 2XFR4    #10</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1909,7 +1904,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2666,10 +2661,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
@@ -2677,10 +2672,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
@@ -2688,10 +2683,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2</v>
@@ -2699,10 +2694,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2</v>
@@ -2710,10 +2705,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2</v>
@@ -2721,10 +2716,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
@@ -2732,10 +2727,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2</v>
@@ -2743,10 +2738,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2</v>
@@ -2754,13 +2749,13 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2768,7 +2763,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
@@ -2779,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
@@ -2787,10 +2782,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -2798,10 +2793,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
@@ -2819,10 +2814,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>88</v>
@@ -2830,10 +2825,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>88</v>
@@ -2841,10 +2836,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>88</v>
@@ -2852,10 +2847,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>88</v>
@@ -2863,10 +2858,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>88</v>
@@ -2874,10 +2869,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>88</v>
@@ -2885,10 +2880,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>88</v>
@@ -2896,10 +2891,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>88</v>
@@ -2907,10 +2902,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>88</v>
@@ -2918,10 +2913,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>88</v>
@@ -2929,10 +2924,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>184</v>
+        <v>350</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>88</v>
@@ -2940,37 +2935,37 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="A102" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>88</v>
@@ -2978,10 +2973,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>88</v>
@@ -2989,10 +2984,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>88</v>
@@ -3000,10 +2995,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>88</v>
@@ -3011,10 +3006,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>88</v>
@@ -3022,10 +3017,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>88</v>
@@ -3033,10 +3028,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>88</v>
@@ -3044,10 +3039,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>88</v>
@@ -3055,10 +3050,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>88</v>
@@ -3066,10 +3061,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>88</v>
@@ -3077,10 +3072,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>88</v>
@@ -3088,10 +3083,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>88</v>
@@ -3099,10 +3094,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>88</v>
@@ -3110,10 +3105,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>88</v>
@@ -3121,10 +3116,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>88</v>
@@ -3132,10 +3127,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>88</v>
@@ -3143,10 +3138,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>88</v>
@@ -3154,10 +3149,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>88</v>
@@ -3165,10 +3160,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>88</v>
@@ -3176,37 +3171,37 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>88</v>
@@ -3214,10 +3209,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>88</v>
@@ -3225,10 +3220,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>88</v>
@@ -3236,107 +3231,101 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1"/>
@@ -3344,16 +3333,22 @@
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="A139" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>88</v>
@@ -3361,10 +3356,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>88</v>
@@ -3372,10 +3367,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>88</v>
@@ -3383,10 +3378,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>88</v>
@@ -3394,10 +3389,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>88</v>
@@ -3405,10 +3400,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>88</v>
@@ -3416,10 +3411,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>88</v>
@@ -3427,10 +3422,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>88</v>
@@ -3438,10 +3433,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>88</v>
@@ -3449,19 +3444,25 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="A150" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1"/>
@@ -3469,74 +3470,74 @@
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="A156" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>271</v>
+        <v>397</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3551,19 +3552,25 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>245</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="A162" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1"/>
@@ -3571,20 +3578,20 @@
       <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="A165" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1"/>
@@ -3597,20 +3604,20 @@
       <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="2"/>
+      <c r="A168" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1"/>
@@ -3623,37 +3630,25 @@
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1"/>
@@ -3661,19 +3656,25 @@
       <c r="C175" s="2"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="A176" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3688,13 +3689,13 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>286</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3708,33 +3709,21 @@
       <c r="C182" s="2"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
@@ -3742,10 +3731,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
@@ -3753,10 +3742,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2</v>
@@ -3764,10 +3753,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
@@ -3775,10 +3764,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -3786,32 +3775,32 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1" t="s">
-        <v>9</v>
+      <c r="A191" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1" t="s">
-        <v>396</v>
+      <c r="A192" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>2</v>
@@ -3819,24 +3808,36 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>397</v>
+        <v>9</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+      <c r="A194" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="A195" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1"/>
@@ -3844,33 +3845,21 @@
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>88</v>
@@ -3878,10 +3867,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>88</v>
@@ -3889,10 +3878,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>88</v>
@@ -3900,10 +3889,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>88</v>
@@ -3911,10 +3900,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>88</v>
@@ -3922,10 +3911,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>88</v>
@@ -3933,21 +3922,21 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1" t="s">
-        <v>131</v>
+      <c r="A206" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>88</v>
@@ -3955,10 +3944,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>88</v>
@@ -3966,112 +3955,118 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
+      <c r="B209" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="C213" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="8" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B216" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="C216" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
+      <c r="A218" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1"/>
@@ -4079,22 +4074,16 @@
       <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>88</v>
@@ -4102,10 +4091,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>88</v>
@@ -4113,10 +4102,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>88</v>
@@ -4124,10 +4113,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>88</v>
@@ -4135,10 +4124,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>88</v>
@@ -4146,10 +4135,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>88</v>
@@ -4157,10 +4146,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>88</v>
@@ -4168,10 +4157,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>88</v>
@@ -4179,10 +4168,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>88</v>
@@ -4190,10 +4179,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>88</v>
@@ -4201,10 +4190,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>88</v>
@@ -4212,19 +4201,25 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
+      <c r="A233" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
@@ -4237,22 +4232,16 @@
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2</v>
@@ -4260,10 +4249,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2</v>
@@ -4271,10 +4260,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -4282,10 +4271,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -4293,10 +4282,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
@@ -4304,10 +4293,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -4315,10 +4304,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -4326,10 +4315,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
@@ -4337,10 +4326,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
@@ -4348,12 +4337,23 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C246" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>2</v>
       </c>
     </row>
